--- a/Mifos Automation Excels/Client/2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -209,13 +209,13 @@
     <t>principal1</t>
   </si>
   <si>
-    <t>2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE</t>
-  </si>
-  <si>
     <t>adjustrepaymentscheduleAmount</t>
   </si>
   <si>
     <t>installmentamount</t>
+  </si>
+  <si>
+    <t>2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE-1st</t>
   </si>
 </sst>
 </file>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +678,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7">
         <v>1000</v>
@@ -1321,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="18">
         <v>1500</v>
